--- a/now/tb_record/tbrecord_v3/data/结果/统计.xlsx
+++ b/now/tb_record/tbrecord_v3/data/结果/统计.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -365,11 +365,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>小强</t>
+          <t>天涯</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -380,73 +380,843 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>小七</t>
+          <t>小强</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>用晟办公专营店</t>
+          <t>1997wangwei</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>小程序小柒</t>
+          <t>小七</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>用晟办公专营店</t>
+          <t>1997wangwei</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>小程序太阳</t>
+          <t>泽华</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>美又全旗舰店</t>
+          <t>1997wangwei</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>小程序美强</t>
+          <t>雪莲</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>无关行业:45</t>
+          <t>1997wangwei</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>晓冬</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1997wangwei</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>林博</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1997wangwei</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>善意</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1997wangwei</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>安安</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1997wangwei</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>厘木</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1997wangwei</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>聚成晓峰</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1997wangwei</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>小鱼</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>用晟办公专营店</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>小程序杰克</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>用晟办公专营店</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>小程序小柒</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>用晟办公专营店</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>小程序太阳</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>用晟办公专营店</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>小程序泽华</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>用晟办公专营店</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>小程序雪莲</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>用晟办公专营店</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>小程序聚为</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>用晟办公专营店</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>小程序林博</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>用晟办公专营店</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>小程序善意</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>用晟办公专营店</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>小程序星晨</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>用晟办公专营店</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>小程序厘木</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>用晟办公专营店</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>小程序晓峰</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>美又全旗舰店</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>小程序美强</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>无关行业:281</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>一句后再无回复:0</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>行业数量:{'可以': 18}</t>
-        </is>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>加油卡</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>外卖</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>答题</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>预约表单（提交信息）</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>预约时间（选择教练、选择时间）</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>视频点播</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>内容阅读</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>任务管理</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>查询</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>商城</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>会员卡（年卡、次卡、充值卡）</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>地图展示</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>汽车代驾</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>手机充值</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>众筹</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>跑腿</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>考勤打卡</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>审批</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>律师咨询</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>租赁</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>扫码付款</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>陪玩下单</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>快递下单</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>打赏</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>预订</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>挪车</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>鉴定</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>共享行业</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>问答讨论</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>回收</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>缴费</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>维修</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>检车</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>洗车</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>占卜服务下单</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>接单端</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>直播</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>信息录入</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>客户管理</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>表单管理</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>班级管理</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>课程表</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>扫码加购</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>扫码骑车</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>美容服务预约</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>邀请好友助力</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>购车</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>上门服务</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>定制商城</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
